--- a/add_tributaries.xlsx
+++ b/add_tributaries.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/thesis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TAKU_MBAL_DATA.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -226,6 +231,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,19 +563,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T311" sqref="T311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -624,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -644,7 +654,7 @@
         <v>-5.4646999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -664,7 +674,7 @@
         <v>-5.4347000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -684,7 +694,7 @@
         <v>-5.4047000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>300</v>
       </c>
@@ -704,7 +714,7 @@
         <v>-5.3746999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -724,7 +734,7 @@
         <v>-5.3446999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -744,7 +754,7 @@
         <v>-5.3147000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>600</v>
       </c>
@@ -764,7 +774,7 @@
         <v>-5.2847</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>700</v>
       </c>
@@ -784,7 +794,7 @@
         <v>-5.2546999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>800</v>
       </c>
@@ -804,7 +814,7 @@
         <v>-5.2247000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>900</v>
       </c>
@@ -824,7 +834,7 @@
         <v>-5.1947000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -844,7 +854,7 @@
         <v>-5.1646999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1100</v>
       </c>
@@ -864,7 +874,7 @@
         <v>-5.1346999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -884,7 +894,7 @@
         <v>-5.1047000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1300</v>
       </c>
@@ -904,7 +914,7 @@
         <v>-5.0747</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1400</v>
       </c>
@@ -924,7 +934,7 @@
         <v>-5.0446999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -944,7 +954,7 @@
         <v>-5.0147000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -964,7 +974,7 @@
         <v>-4.9847000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -984,7 +994,7 @@
         <v>-4.9546999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>-4.9246999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>-4.8947000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>-4.8647</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>-4.8346999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>-4.8047000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -1104,7 +1114,7 @@
         <v>-4.7747000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>-4.7446999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>-4.7146999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2600</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>-4.6847000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2700</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>-4.6547000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2800</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>-4.6246999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2900</v>
       </c>
@@ -1224,7 +1234,7 @@
         <v>-4.5946999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>-4.5647000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3100</v>
       </c>
@@ -1264,7 +1274,7 @@
         <v>-4.5347</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3200</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>-4.5046999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3300</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>-4.4747000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3400</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>-4.4447000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3500</v>
       </c>
@@ -1344,7 +1354,7 @@
         <v>-4.4146999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3600</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>-4.3846999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3700</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>-4.3547000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3800</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>-4.3247</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3900</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>-4.2946999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>-4.2647000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4100</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>-4.2347000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4200</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>-4.2046999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4300</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>-4.1746999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4400</v>
       </c>
@@ -1524,7 +1534,7 @@
         <v>-4.1447000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4500</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>-4.1147</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4600</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>-4.0846999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4700</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>-4.0547000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4800</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>-4.0247000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4900</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>-3.9946999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>-3.9647000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>-3.9346999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>-3.9047000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5300</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>-3.8746999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5400</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>-3.8447</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5500</v>
       </c>
@@ -1744,7 +1754,7 @@
         <v>-3.8147000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5600</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>-3.7847</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5700</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>-3.7547000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5800</v>
       </c>
@@ -1804,7 +1814,7 @@
         <v>-3.7246999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5900</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>-3.6947000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6000</v>
       </c>
@@ -1844,7 +1854,7 @@
         <v>-3.6646999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6100</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>-3.6347</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>-3.6046999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6300</v>
       </c>
@@ -1904,7 +1914,7 @@
         <v>-3.5747</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>-3.5447000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6500</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>-3.5146999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6600</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>-3.4847000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6700</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>-3.4546999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6800</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>-3.4247000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6900</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>-3.3946999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7000</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>-3.3647</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7100</v>
       </c>
@@ -2064,7 +2074,7 @@
         <v>-3.3347000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7200</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>-3.3047</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7300</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>-3.2747000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7400</v>
       </c>
@@ -2124,7 +2134,7 @@
         <v>-3.2446999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7500</v>
       </c>
@@ -2144,7 +2154,7 @@
         <v>-3.2147000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7600</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>-3.1846999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7700</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>-3.1547000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7800</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>-3.1246999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7900</v>
       </c>
@@ -2224,7 +2234,7 @@
         <v>-3.0947</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8000</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>-3.0647000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8100</v>
       </c>
@@ -2264,7 +2274,7 @@
         <v>-3.0347</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8200</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>-3.0047000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8300</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>-2.9746999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8400</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>-2.9447000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8500</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>-2.9146999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8600</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>-2.8847</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8700</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>-2.8546999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8800</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>-38.018214987500002</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8900</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9000</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9100</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9200</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9300</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9400</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9500</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9600</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9700</v>
       </c>
@@ -2855,7 +2865,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9800</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9900</v>
       </c>
@@ -2949,7 +2959,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10000</v>
       </c>
@@ -2996,7 +3006,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10100</v>
       </c>
@@ -3043,7 +3053,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>10200</v>
       </c>
@@ -3090,7 +3100,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10300</v>
       </c>
@@ -3137,7 +3147,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10400</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>-38.018214999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10500</v>
       </c>
@@ -3205,7 +3215,7 @@
         <v>-2.3147000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10600</v>
       </c>
@@ -3225,7 +3235,7 @@
         <v>-2.2847</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10700</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>-2.2547000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10800</v>
       </c>
@@ -3265,7 +3275,7 @@
         <v>-2.2246999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10900</v>
       </c>
@@ -3285,7 +3295,7 @@
         <v>-2.1947000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11000</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>-2.1646999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>11100</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>-2.1347</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11200</v>
       </c>
@@ -3345,7 +3355,7 @@
         <v>-2.1046999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11300</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>-2.0747</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>11400</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>-2.0447000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11500</v>
       </c>
@@ -3405,7 +3415,7 @@
         <v>-2.0146999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11600</v>
       </c>
@@ -3425,7 +3435,7 @@
         <v>-1.9846999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11700</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>-1.9547000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11800</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>-1.9247000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11900</v>
       </c>
@@ -3485,7 +3495,7 @@
         <v>-1.8947000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12000</v>
       </c>
@@ -3505,7 +3515,7 @@
         <v>-1.8647</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12100</v>
       </c>
@@ -3525,7 +3535,7 @@
         <v>-1.8347</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12200</v>
       </c>
@@ -3545,7 +3555,7 @@
         <v>-1.8047</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12300</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>-1.7746999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12400</v>
       </c>
@@ -3585,7 +3595,7 @@
         <v>-1.7446999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12500</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>-1.7146999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12600</v>
       </c>
@@ -3625,7 +3635,7 @@
         <v>-1.6847000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12700</v>
       </c>
@@ -3645,7 +3655,7 @@
         <v>-1.6547000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12800</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>-1.6247</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12900</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>-1.5947</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13000</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>-1.5647</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13100</v>
       </c>
@@ -3725,7 +3735,7 @@
         <v>-1.5347</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13200</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>-1.5046999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13300</v>
       </c>
@@ -3765,7 +3775,7 @@
         <v>-1.4746999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13400</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>-1.4447000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>13500</v>
       </c>
@@ -3805,7 +3815,7 @@
         <v>-1.4147000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13600</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>-1.3847</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13700</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>-1.3547</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13800</v>
       </c>
@@ -3865,7 +3875,7 @@
         <v>-1.3247</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13900</v>
       </c>
@@ -3885,7 +3895,7 @@
         <v>-1.2947</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14000</v>
       </c>
@@ -3905,7 +3915,7 @@
         <v>-1.2646999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14100</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>-1.2346999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14200</v>
       </c>
@@ -3945,7 +3955,7 @@
         <v>-1.2047000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14300</v>
       </c>
@@ -3965,7 +3975,7 @@
         <v>-1.1747000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14400</v>
       </c>
@@ -3985,7 +3995,7 @@
         <v>-1.1447000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14500</v>
       </c>
@@ -4005,7 +4015,7 @@
         <v>-1.1147</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14600</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>-1.0847</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14700</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>-1.0547</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14800</v>
       </c>
@@ -4065,7 +4075,7 @@
         <v>-1.0246999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14900</v>
       </c>
@@ -4085,7 +4095,7 @@
         <v>-0.99470000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15000</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>-0.9647</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>15100</v>
       </c>
@@ -4125,7 +4135,7 @@
         <v>-0.93469999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>15200</v>
       </c>
@@ -4145,7 +4155,7 @@
         <v>-0.90469999999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>15300</v>
       </c>
@@ -4165,7 +4175,7 @@
         <v>-0.87470000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15400</v>
       </c>
@@ -4185,7 +4195,7 @@
         <v>-0.84470000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15500</v>
       </c>
@@ -4205,7 +4215,7 @@
         <v>-0.81469999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>15600</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>-0.78469999999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>15700</v>
       </c>
@@ -4245,7 +4255,7 @@
         <v>-0.75470000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>15800</v>
       </c>
@@ -4265,7 +4275,7 @@
         <v>-0.72470000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15900</v>
       </c>
@@ -4285,7 +4295,7 @@
         <v>-0.69469999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16000</v>
       </c>
@@ -4305,7 +4315,7 @@
         <v>-0.66469999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>16100</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>-0.63470000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>16200</v>
       </c>
@@ -4345,7 +4355,7 @@
         <v>-0.60470000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>16300</v>
       </c>
@@ -4365,7 +4375,7 @@
         <v>-0.57469999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>16400</v>
       </c>
@@ -4385,7 +4395,7 @@
         <v>-0.54469999999999996</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>16500</v>
       </c>
@@ -4405,7 +4415,7 @@
         <v>-0.51470000000000005</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>16600</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>-0.48470000000000002</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>16700</v>
       </c>
@@ -4445,7 +4455,7 @@
         <v>-0.45469999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>16800</v>
       </c>
@@ -4465,7 +4475,7 @@
         <v>-0.42470000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>16900</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>-0.3947</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>17000</v>
       </c>
@@ -4505,7 +4515,7 @@
         <v>-0.36470000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>17100</v>
       </c>
@@ -4525,7 +4535,7 @@
         <v>-0.3347</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>17200</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>-0.30470000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>17300</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>-0.2747</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>17400</v>
       </c>
@@ -4585,7 +4595,7 @@
         <v>-0.2447</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>17500</v>
       </c>
@@ -4605,7 +4615,7 @@
         <v>-0.2147</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>17600</v>
       </c>
@@ -4625,7 +4635,7 @@
         <v>-0.1847</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>17700</v>
       </c>
@@ -4645,7 +4655,7 @@
         <v>-0.1547</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>17800</v>
       </c>
@@ -4665,7 +4675,7 @@
         <v>-0.12470000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>17900</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>-9.4700000000000006E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>18000</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>-6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>18100</v>
       </c>
@@ -4725,7 +4735,7 @@
         <v>-3.4700000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>18200</v>
       </c>
@@ -4745,7 +4755,7 @@
         <v>-4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>18300</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>18400</v>
       </c>
@@ -4785,7 +4795,7 @@
         <v>5.5300000000000002E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>18500</v>
       </c>
@@ -4805,7 +4815,7 @@
         <v>8.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>18600</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>18700</v>
       </c>
@@ -4845,7 +4855,7 @@
         <v>1.6688000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>18800</v>
       </c>
@@ -4865,7 +4875,7 @@
         <v>1.6988000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>18900</v>
       </c>
@@ -4885,7 +4895,7 @@
         <v>1.7287999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>19000</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>1.7587999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>19100</v>
       </c>
@@ -4925,7 +4935,7 @@
         <v>1.7887999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>19200</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>1.8188</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>19300</v>
       </c>
@@ -4965,7 +4975,7 @@
         <v>1.8488</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>19400</v>
       </c>
@@ -4985,7 +4995,7 @@
         <v>1.8788</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>19500</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>1.9088000000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>19600</v>
       </c>
@@ -5025,7 +5035,7 @@
         <v>1.9388000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>19700</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>1.9688000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>19800</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>1.9987999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19900</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>2.0287999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20000</v>
       </c>
@@ -5105,7 +5115,7 @@
         <v>2.0588000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>20100</v>
       </c>
@@ -5125,7 +5135,7 @@
         <v>2.0888</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>20200</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>2.1187999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>20300</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>2.1488</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>20400</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>2.1787999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>20500</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>2.2088000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>20600</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>2.2387999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>20700</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>2.2688000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>20800</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>2.2988</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>20900</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>2.3288000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>21000</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>2.3588</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21100</v>
       </c>
@@ -5325,7 +5335,7 @@
         <v>2.3887999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>21200</v>
       </c>
@@ -5372,7 +5382,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>21300</v>
       </c>
@@ -5419,7 +5429,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>21400</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>21500</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>21600</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>6.5128426044082834</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>21700</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>21800</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>21900</v>
       </c>
@@ -5702,7 +5712,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>22000</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>22100</v>
       </c>
@@ -5796,7 +5806,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>22200</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>22300</v>
       </c>
@@ -5890,7 +5900,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>22400</v>
       </c>
@@ -5937,7 +5947,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>22500</v>
       </c>
@@ -5984,7 +5994,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>22600</v>
       </c>
@@ -6031,7 +6041,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>22700</v>
       </c>
@@ -6078,7 +6088,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>22800</v>
       </c>
@@ -6125,7 +6135,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>22900</v>
       </c>
@@ -6172,7 +6182,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>23000</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>23100</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>23200</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>23300</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>23400</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>23500</v>
       </c>
@@ -6454,7 +6464,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>23600</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>23700</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>23800</v>
       </c>
@@ -6595,7 +6605,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>23900</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>24000</v>
       </c>
@@ -6689,7 +6699,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>24100</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>6.5128425999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>24200</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>14.035472743389128</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>24300</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>24400</v>
       </c>
@@ -6950,7 +6960,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>24500</v>
       </c>
@@ -7021,7 +7031,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>24600</v>
       </c>
@@ -7092,7 +7102,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>24700</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>24800</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>24900</v>
       </c>
@@ -7305,7 +7315,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>25000</v>
       </c>
@@ -7376,7 +7386,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>25100</v>
       </c>
@@ -7447,7 +7457,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>25200</v>
       </c>
@@ -7518,7 +7528,7 @@
         <v>14.0354727</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>25300</v>
       </c>
@@ -7566,7 +7576,7 @@
         <v>7.5226301433891294</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>25400</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>25500</v>
       </c>
@@ -7660,7 +7670,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>25600</v>
       </c>
@@ -7707,7 +7717,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>25700</v>
       </c>
@@ -7754,7 +7764,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>25800</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>25900</v>
       </c>
@@ -7848,7 +7858,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>26000</v>
       </c>
@@ -7895,7 +7905,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>26100</v>
       </c>
@@ -7942,7 +7952,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>26200</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>26300</v>
       </c>
@@ -8036,7 +8046,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>26400</v>
       </c>
@@ -8083,7 +8093,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>26500</v>
       </c>
@@ -8130,7 +8140,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>26600</v>
       </c>
@@ -8177,7 +8187,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>26700</v>
       </c>
@@ -8224,7 +8234,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>26800</v>
       </c>
@@ -8271,7 +8281,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>26900</v>
       </c>
@@ -8318,7 +8328,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>27000</v>
       </c>
@@ -8365,7 +8375,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>27100</v>
       </c>
@@ -8412,7 +8422,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>27200</v>
       </c>
@@ -8459,7 +8469,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>27300</v>
       </c>
@@ -8506,7 +8516,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>27400</v>
       </c>
@@ -8553,7 +8563,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>27500</v>
       </c>
@@ -8600,7 +8610,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>27600</v>
       </c>
@@ -8647,7 +8657,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>27700</v>
       </c>
@@ -8694,7 +8704,7 @@
         <v>7.5226301400000004</v>
       </c>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>27800</v>
       </c>
@@ -8714,7 +8724,7 @@
         <v>4.1208999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>27900</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>4.1269</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>28000</v>
       </c>
@@ -8754,7 +8764,7 @@
         <v>4.1329000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>28100</v>
       </c>
@@ -8774,7 +8784,7 @@
         <v>4.1388999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>28200</v>
       </c>
@@ -8794,7 +8804,7 @@
         <v>4.1448999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>28300</v>
       </c>
@@ -8814,7 +8824,7 @@
         <v>4.1509</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>28400</v>
       </c>
@@ -8834,7 +8844,7 @@
         <v>4.1569000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>28500</v>
       </c>
@@ -8854,7 +8864,7 @@
         <v>4.1628999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>28600</v>
       </c>
@@ -8874,7 +8884,7 @@
         <v>4.1688999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>28700</v>
       </c>
@@ -8894,7 +8904,7 @@
         <v>4.1749000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>28800</v>
       </c>
@@ -8914,7 +8924,7 @@
         <v>4.1809000000000003</v>
       </c>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>28900</v>
       </c>
@@ -8934,7 +8944,7 @@
         <v>4.1868999999999996</v>
       </c>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>29000</v>
       </c>
@@ -8954,7 +8964,7 @@
         <v>4.1928999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>29100</v>
       </c>
@@ -8974,7 +8984,7 @@
         <v>4.1989000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>29200</v>
       </c>
@@ -8994,7 +9004,7 @@
         <v>4.2049000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>29300</v>
       </c>
@@ -9014,7 +9024,7 @@
         <v>4.2108999999999996</v>
       </c>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>29400</v>
       </c>
@@ -9034,7 +9044,7 @@
         <v>4.2168999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>29500</v>
       </c>
@@ -9054,7 +9064,7 @@
         <v>4.2229000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>29600</v>
       </c>
@@ -9074,7 +9084,7 @@
         <v>4.2289000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>29700</v>
       </c>
@@ -9094,7 +9104,7 @@
         <v>4.2348999999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>29800</v>
       </c>
@@ -9114,7 +9124,7 @@
         <v>4.2408999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>29900</v>
       </c>
@@ -9134,7 +9144,7 @@
         <v>4.2469000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>30000</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>4.2529000000000003</v>
       </c>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>30100</v>
       </c>
@@ -9174,7 +9184,7 @@
         <v>4.2588999999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>30200</v>
       </c>
@@ -9194,7 +9204,7 @@
         <v>4.2648999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>30300</v>
       </c>
@@ -9214,7 +9224,7 @@
         <v>4.2709000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>30400</v>
       </c>
@@ -9234,7 +9244,7 @@
         <v>4.2769000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>30500</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>4.2828999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>30600</v>
       </c>
@@ -9274,7 +9284,7 @@
         <v>4.2888999999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>30700</v>
       </c>
@@ -9294,7 +9304,7 @@
         <v>4.2949000000000002</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>30800</v>
       </c>
@@ -9314,7 +9324,7 @@
         <v>4.3009000000000004</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>30900</v>
       </c>
@@ -9338,7 +9348,7 @@
         <v>7.1845308242727421</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>31000</v>
       </c>
@@ -9358,7 +9368,7 @@
         <v>4.3129</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>31100</v>
       </c>
@@ -9406,7 +9416,7 @@
         <v>7.1845308242727421</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>31200</v>
       </c>
@@ -9453,7 +9463,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>31300</v>
       </c>
@@ -9500,7 +9510,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>31400</v>
       </c>
@@ -9547,7 +9557,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>31500</v>
       </c>
@@ -9594,7 +9604,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>31600</v>
       </c>
@@ -9641,7 +9651,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>31700</v>
       </c>
@@ -9688,7 +9698,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>31800</v>
       </c>
@@ -9735,7 +9745,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>31900</v>
       </c>
@@ -9782,7 +9792,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>32000</v>
       </c>
@@ -9829,7 +9839,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>32100</v>
       </c>
@@ -9876,7 +9886,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>32200</v>
       </c>
@@ -9923,7 +9933,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>32300</v>
       </c>
@@ -9970,7 +9980,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>32400</v>
       </c>
@@ -10017,7 +10027,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>32500</v>
       </c>
@@ -10064,7 +10074,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>32600</v>
       </c>
@@ -10111,7 +10121,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>32700</v>
       </c>
@@ -10158,7 +10168,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>32800</v>
       </c>
@@ -10205,7 +10215,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>32900</v>
       </c>
@@ -10252,7 +10262,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>33000</v>
       </c>
@@ -10299,7 +10309,7 @@
         <v>7.18453082</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>33100</v>
       </c>
@@ -10371,7 +10381,7 @@
         <v>12.940931778656989</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>33200</v>
       </c>
@@ -10442,7 +10452,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>33300</v>
       </c>
@@ -10513,7 +10523,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>33400</v>
       </c>
@@ -10584,7 +10594,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>33500</v>
       </c>
@@ -10655,7 +10665,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>33600</v>
       </c>
@@ -10726,7 +10736,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>33700</v>
       </c>
@@ -10797,7 +10807,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>33800</v>
       </c>
@@ -10868,7 +10878,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>33900</v>
       </c>
@@ -10939,7 +10949,7 @@
         <v>12.9409318</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>34000</v>
       </c>
@@ -10987,7 +10997,7 @@
         <v>5.7564009586569878</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>34100</v>
       </c>
@@ -11034,7 +11044,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>34200</v>
       </c>
@@ -11081,7 +11091,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>34300</v>
       </c>
@@ -11128,7 +11138,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>34400</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>34500</v>
       </c>
@@ -11222,7 +11232,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>34600</v>
       </c>
@@ -11269,7 +11279,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>34700</v>
       </c>
@@ -11316,7 +11326,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>34800</v>
       </c>
@@ -11363,7 +11373,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>34900</v>
       </c>
@@ -11410,7 +11420,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>35000</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>35100</v>
       </c>
@@ -11504,7 +11514,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>35200</v>
       </c>
@@ -11551,7 +11561,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>35300</v>
       </c>
@@ -11598,7 +11608,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>35400</v>
       </c>
@@ -11645,7 +11655,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="357" spans="1:20">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>35500</v>
       </c>
@@ -11692,7 +11702,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>35600</v>
       </c>
@@ -11739,7 +11749,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="359" spans="1:20">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>35700</v>
       </c>
@@ -11786,7 +11796,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>35800</v>
       </c>
@@ -11833,7 +11843,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>35900</v>
       </c>
@@ -11880,7 +11890,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>36000</v>
       </c>
@@ -11927,7 +11937,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>36100</v>
       </c>
@@ -11974,7 +11984,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>36200</v>
       </c>
@@ -12021,7 +12031,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>36300</v>
       </c>
@@ -12068,7 +12078,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="366" spans="1:20">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>36400</v>
       </c>
@@ -12115,7 +12125,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="367" spans="1:20">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>36500</v>
       </c>
@@ -12162,7 +12172,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="368" spans="1:20">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>36600</v>
       </c>
@@ -12209,7 +12219,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="369" spans="1:20">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>36700</v>
       </c>
@@ -12256,7 +12266,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="370" spans="1:20">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>36800</v>
       </c>
@@ -12303,7 +12313,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="371" spans="1:20">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>36900</v>
       </c>
@@ -12350,7 +12360,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="372" spans="1:20">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>37000</v>
       </c>
@@ -12397,7 +12407,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="373" spans="1:20">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>37100</v>
       </c>
@@ -12444,7 +12454,7 @@
         <v>5.7564009599999997</v>
       </c>
     </row>
-    <row r="374" spans="1:20">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>37200</v>
       </c>
@@ -12464,7 +12474,7 @@
         <v>3.8363999999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:20">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>37300</v>
       </c>
@@ -12484,7 +12494,7 @@
         <v>3.8424</v>
       </c>
     </row>
-    <row r="376" spans="1:20">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>37400</v>
       </c>
@@ -12504,7 +12514,7 @@
         <v>3.8483999999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:20">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>37500</v>
       </c>
@@ -12524,7 +12534,7 @@
         <v>3.8544</v>
       </c>
     </row>
-    <row r="378" spans="1:20">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>37600</v>
       </c>
@@ -12544,7 +12554,7 @@
         <v>3.8603999999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:20">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>37700</v>
       </c>
@@ -12564,7 +12574,7 @@
         <v>3.8664000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:20">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>37800</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>3.8723999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:20">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>37900</v>
       </c>
@@ -12604,7 +12614,7 @@
         <v>3.8784000000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:20">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>38000</v>
       </c>
@@ -12624,7 +12634,7 @@
         <v>3.8843999999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:20">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>38100</v>
       </c>
@@ -12644,7 +12654,7 @@
         <v>3.8904000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:20">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>38200</v>
       </c>
@@ -12664,7 +12674,7 @@
         <v>3.8963999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>38300</v>
       </c>
@@ -12684,7 +12694,7 @@
         <v>3.9024000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>38400</v>
       </c>
@@ -12704,7 +12714,7 @@
         <v>3.9083999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>38500</v>
       </c>
@@ -12724,7 +12734,7 @@
         <v>3.9144000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>38600</v>
       </c>
@@ -12744,7 +12754,7 @@
         <v>3.9203999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>38700</v>
       </c>
@@ -12764,7 +12774,7 @@
         <v>6.5884999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>38800</v>
       </c>
@@ -12784,7 +12794,7 @@
         <v>6.6284999999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>38900</v>
       </c>
@@ -12804,7 +12814,7 @@
         <v>6.6684999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>39000</v>
       </c>
@@ -12824,7 +12834,7 @@
         <v>6.7084999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>39100</v>
       </c>
@@ -12844,7 +12854,7 @@
         <v>6.7484999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>39200</v>
       </c>
@@ -12864,7 +12874,7 @@
         <v>6.7885</v>
       </c>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>39300</v>
       </c>
@@ -12884,7 +12894,7 @@
         <v>6.8285</v>
       </c>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>39400</v>
       </c>
@@ -12904,7 +12914,7 @@
         <v>6.8685</v>
       </c>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>39500</v>
       </c>
@@ -12924,7 +12934,7 @@
         <v>6.9085000000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>39600</v>
       </c>
@@ -12944,7 +12954,7 @@
         <v>6.9485000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>39700</v>
       </c>
@@ -12964,7 +12974,7 @@
         <v>6.9885000000000002</v>
       </c>
     </row>
-    <row r="400" spans="1:19">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>39800</v>
       </c>
@@ -12984,7 +12994,7 @@
         <v>7.0285000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:19">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>39900</v>
       </c>
@@ -13004,7 +13014,7 @@
         <v>7.0685000000000002</v>
       </c>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>40000</v>
       </c>
@@ -13024,7 +13034,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>40100</v>
       </c>
@@ -13044,7 +13054,7 @@
         <v>7.1485000000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>40200</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>7.1885000000000003</v>
       </c>
     </row>
-    <row r="405" spans="1:19">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>40300</v>
       </c>
@@ -13084,7 +13094,7 @@
         <v>7.2285000000000004</v>
       </c>
     </row>
-    <row r="406" spans="1:19">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>40400</v>
       </c>
@@ -13104,7 +13114,7 @@
         <v>7.2685000000000004</v>
       </c>
     </row>
-    <row r="407" spans="1:19">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>40500</v>
       </c>
@@ -13124,7 +13134,7 @@
         <v>7.3085000000000004</v>
       </c>
     </row>
-    <row r="408" spans="1:19">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>40600</v>
       </c>
@@ -13144,7 +13154,7 @@
         <v>7.3484999999999996</v>
       </c>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>40700</v>
       </c>
@@ -13164,7 +13174,7 @@
         <v>7.3884999999999996</v>
       </c>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>40800</v>
       </c>
@@ -13184,7 +13194,7 @@
         <v>7.4284999999999997</v>
       </c>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>40900</v>
       </c>
@@ -13204,7 +13214,7 @@
         <v>7.4684999999999997</v>
       </c>
     </row>
-    <row r="412" spans="1:19">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>41000</v>
       </c>
@@ -13224,7 +13234,7 @@
         <v>7.5084999999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:19">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>41100</v>
       </c>
@@ -13244,7 +13254,7 @@
         <v>7.5484999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>41200</v>
       </c>
@@ -13264,7 +13274,7 @@
         <v>7.5884999999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:19">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>41300</v>
       </c>
@@ -13284,7 +13294,7 @@
         <v>7.6284999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:19">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>41400</v>
       </c>
@@ -13304,7 +13314,7 @@
         <v>7.6684999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>41500</v>
       </c>
@@ -13324,7 +13334,7 @@
         <v>7.7084999999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>41600</v>
       </c>
@@ -13344,7 +13354,7 @@
         <v>7.7484999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>41700</v>
       </c>
@@ -13364,7 +13374,7 @@
         <v>7.7885</v>
       </c>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>41800</v>
       </c>
@@ -13384,7 +13394,7 @@
         <v>7.8285</v>
       </c>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>41900</v>
       </c>
@@ -13404,7 +13414,7 @@
         <v>7.8685</v>
       </c>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>42000</v>
       </c>
@@ -13424,7 +13434,7 @@
         <v>7.9085000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>42100</v>
       </c>
@@ -13444,7 +13454,7 @@
         <v>7.9485000000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>42200</v>
       </c>
@@ -13464,7 +13474,7 @@
         <v>7.9885000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>42300</v>
       </c>
@@ -13484,7 +13494,7 @@
         <v>8.0284999999999993</v>
       </c>
     </row>
-    <row r="426" spans="1:19">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>42400</v>
       </c>
@@ -13504,7 +13514,7 @@
         <v>8.0685000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>42500</v>
       </c>
@@ -13524,7 +13534,7 @@
         <v>8.1084999999999994</v>
       </c>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>42600</v>
       </c>
@@ -13544,7 +13554,7 @@
         <v>8.1485000000000003</v>
       </c>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>42700</v>
       </c>
@@ -13564,7 +13574,7 @@
         <v>8.1884999999999994</v>
       </c>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>42800</v>
       </c>
@@ -13584,7 +13594,7 @@
         <v>8.2285000000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:19">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>42900</v>
       </c>
@@ -13604,7 +13614,7 @@
         <v>8.2684999999999995</v>
       </c>
     </row>
-    <row r="432" spans="1:19">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>43000</v>
       </c>
@@ -13624,7 +13634,7 @@
         <v>8.3085000000000004</v>
       </c>
     </row>
-    <row r="433" spans="1:19">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>43100</v>
       </c>
@@ -13644,7 +13654,7 @@
         <v>8.3484999999999996</v>
       </c>
     </row>
-    <row r="434" spans="1:19">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>43200</v>
       </c>
@@ -13664,7 +13674,7 @@
         <v>8.3885000000000005</v>
       </c>
     </row>
-    <row r="435" spans="1:19">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>43300</v>
       </c>
@@ -13684,7 +13694,7 @@
         <v>8.4284999999999997</v>
       </c>
     </row>
-    <row r="436" spans="1:19">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>43400</v>
       </c>
@@ -13704,7 +13714,7 @@
         <v>8.4685000000000006</v>
       </c>
     </row>
-    <row r="437" spans="1:19">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>43500</v>
       </c>
@@ -13724,7 +13734,7 @@
         <v>8.5084999999999997</v>
       </c>
     </row>
-    <row r="438" spans="1:19">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>43600</v>
       </c>
@@ -13744,7 +13754,7 @@
         <v>8.5485000000000007</v>
       </c>
     </row>
-    <row r="439" spans="1:19">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>43700</v>
       </c>
@@ -13764,7 +13774,7 @@
         <v>8.5884999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:19">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>43800</v>
       </c>
@@ -13784,7 +13794,7 @@
         <v>8.6285000000000007</v>
       </c>
     </row>
-    <row r="441" spans="1:19">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>43900</v>
       </c>
@@ -13804,7 +13814,7 @@
         <v>8.6684999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:19">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>44000</v>
       </c>
@@ -13824,7 +13834,7 @@
         <v>8.7085000000000008</v>
       </c>
     </row>
-    <row r="443" spans="1:19">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>44100</v>
       </c>
@@ -13844,7 +13854,7 @@
         <v>8.7484999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:19">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>44200</v>
       </c>
@@ -13864,7 +13874,7 @@
         <v>8.7885000000000009</v>
       </c>
     </row>
-    <row r="445" spans="1:19">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>44300</v>
       </c>
@@ -13884,7 +13894,7 @@
         <v>8.8285</v>
       </c>
     </row>
-    <row r="446" spans="1:19">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>44400</v>
       </c>
@@ -13904,7 +13914,7 @@
         <v>8.8684999999999992</v>
       </c>
     </row>
-    <row r="447" spans="1:19">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>44500</v>
       </c>
@@ -13924,7 +13934,7 @@
         <v>8.9085000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>44600</v>
       </c>
@@ -13944,7 +13954,7 @@
         <v>8.9484999999999992</v>
       </c>
     </row>
-    <row r="449" spans="1:19">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>44700</v>
       </c>
@@ -13964,7 +13974,7 @@
         <v>8.9885000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:19">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>44800</v>
       </c>
@@ -13984,7 +13994,7 @@
         <v>9.0284999999999993</v>
       </c>
     </row>
-    <row r="451" spans="1:19">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>44900</v>
       </c>
@@ -14004,7 +14014,7 @@
         <v>9.0685000000000002</v>
       </c>
     </row>
-    <row r="452" spans="1:19">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>45000</v>
       </c>
@@ -14024,7 +14034,7 @@
         <v>9.1084999999999994</v>
       </c>
     </row>
-    <row r="453" spans="1:19">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>45100</v>
       </c>
@@ -14044,7 +14054,7 @@
         <v>9.1485000000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:19">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>45200</v>
       </c>
@@ -14064,7 +14074,7 @@
         <v>9.1884999999999994</v>
       </c>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>45300</v>
       </c>
@@ -14084,7 +14094,7 @@
         <v>9.2285000000000004</v>
       </c>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>45400</v>
       </c>
@@ -14104,7 +14114,7 @@
         <v>9.2684999999999995</v>
       </c>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>45500</v>
       </c>
@@ -14124,7 +14134,7 @@
         <v>9.3085000000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:19">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>45600</v>
       </c>
@@ -14144,7 +14154,7 @@
         <v>9.3484999999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:19">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>45700</v>
       </c>
@@ -14164,7 +14174,7 @@
         <v>9.3885000000000005</v>
       </c>
     </row>
-    <row r="460" spans="1:19">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>45800</v>
       </c>
@@ -14184,7 +14194,7 @@
         <v>9.4284999999999997</v>
       </c>
     </row>
-    <row r="461" spans="1:19">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>45900</v>
       </c>
@@ -14204,7 +14214,7 @@
         <v>9.4685000000000006</v>
       </c>
     </row>
-    <row r="462" spans="1:19">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>46000</v>
       </c>
@@ -14224,7 +14234,7 @@
         <v>9.5084999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:19">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>46100</v>
       </c>
@@ -14244,7 +14254,7 @@
         <v>9.5485000000000007</v>
       </c>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>46200</v>
       </c>
@@ -14264,7 +14274,7 @@
         <v>9.5884999999999998</v>
       </c>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>46300</v>
       </c>
@@ -14284,7 +14294,7 @@
         <v>9.6285000000000007</v>
       </c>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>46400</v>
       </c>
@@ -14304,7 +14314,7 @@
         <v>9.6684999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:19">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>46500</v>
       </c>
@@ -14324,7 +14334,7 @@
         <v>9.7085000000000008</v>
       </c>
     </row>
-    <row r="468" spans="1:19">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>46600</v>
       </c>
@@ -14344,7 +14354,7 @@
         <v>9.7484999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:19">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>46700</v>
       </c>
@@ -14364,7 +14374,7 @@
         <v>9.7885000000000009</v>
       </c>
     </row>
-    <row r="470" spans="1:19">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>46800</v>
       </c>
@@ -14384,7 +14394,7 @@
         <v>9.8285</v>
       </c>
     </row>
-    <row r="471" spans="1:19">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>46900</v>
       </c>
@@ -14404,7 +14414,7 @@
         <v>9.8684999999999992</v>
       </c>
     </row>
-    <row r="472" spans="1:19">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>47000</v>
       </c>
@@ -14424,7 +14434,7 @@
         <v>9.9085000000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:19">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>47100</v>
       </c>
@@ -14444,7 +14454,7 @@
         <v>9.9484999999999992</v>
       </c>
     </row>
-    <row r="474" spans="1:19">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>47200</v>
       </c>
@@ -14464,7 +14474,7 @@
         <v>9.9885000000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:19">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>47300</v>
       </c>
@@ -14484,7 +14494,7 @@
         <v>10.028499999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:19">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>47400</v>
       </c>
@@ -14504,7 +14514,7 @@
         <v>6.0357000000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:19">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>47500</v>
       </c>
@@ -14524,7 +14534,7 @@
         <v>6.0457000000000001</v>
       </c>
     </row>
-    <row r="478" spans="1:19">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>47600</v>
       </c>
@@ -14544,7 +14554,7 @@
         <v>6.0556999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:19">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>47700</v>
       </c>
@@ -14564,7 +14574,7 @@
         <v>6.0656999999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:19">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>47800</v>
       </c>
@@ -14584,7 +14594,7 @@
         <v>6.0757000000000003</v>
       </c>
     </row>
-    <row r="481" spans="1:19">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>47900</v>
       </c>
@@ -14604,7 +14614,7 @@
         <v>6.0857000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:19">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>48000</v>
       </c>
@@ -14624,7 +14634,7 @@
         <v>6.0956999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:19">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>48100</v>
       </c>
@@ -14644,7 +14654,7 @@
         <v>6.1056999999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:19">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>48200</v>
       </c>
@@ -14664,7 +14674,7 @@
         <v>6.1157000000000004</v>
       </c>
     </row>
-    <row r="485" spans="1:19">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>48300</v>
       </c>
@@ -14684,7 +14694,7 @@
         <v>6.1257000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:19">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>48400</v>
       </c>
@@ -14704,7 +14714,7 @@
         <v>6.1356999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:19">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>48500</v>
       </c>
@@ -14724,7 +14734,7 @@
         <v>6.1456999999999997</v>
       </c>
     </row>
-    <row r="488" spans="1:19">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>48600</v>
       </c>
@@ -14744,7 +14754,7 @@
         <v>6.1557000000000004</v>
       </c>
     </row>
-    <row r="489" spans="1:19">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>48700</v>
       </c>
@@ -14764,7 +14774,7 @@
         <v>6.1657000000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:19">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>48800</v>
       </c>
@@ -14784,7 +14794,7 @@
         <v>6.1757</v>
       </c>
     </row>
-    <row r="491" spans="1:19">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>48900</v>
       </c>
@@ -14804,7 +14814,7 @@
         <v>6.1856999999999998</v>
       </c>
     </row>
-    <row r="492" spans="1:19">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>49000</v>
       </c>
@@ -14824,7 +14834,7 @@
         <v>6.1957000000000004</v>
       </c>
     </row>
-    <row r="493" spans="1:19">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>49100</v>
       </c>
@@ -14844,7 +14854,7 @@
         <v>6.2057000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:19">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>49200</v>
       </c>
@@ -14864,7 +14874,7 @@
         <v>6.2157</v>
       </c>
     </row>
-    <row r="495" spans="1:19">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>49300</v>
       </c>
@@ -14884,7 +14894,7 @@
         <v>6.2256999999999998</v>
       </c>
     </row>
-    <row r="496" spans="1:19">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>49400</v>
       </c>
@@ -14904,7 +14914,7 @@
         <v>6.2356999999999996</v>
       </c>
     </row>
-    <row r="497" spans="1:19">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>49500</v>
       </c>
@@ -14924,7 +14934,7 @@
         <v>6.2457000000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:19">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>49600</v>
       </c>
@@ -14944,7 +14954,7 @@
         <v>6.2557</v>
       </c>
     </row>
-    <row r="499" spans="1:19">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>49700</v>
       </c>
@@ -14964,7 +14974,7 @@
         <v>6.2656999999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:19">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>49800</v>
       </c>
@@ -14984,7 +14994,7 @@
         <v>6.2756999999999996</v>
       </c>
     </row>
-    <row r="501" spans="1:19">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>49900</v>
       </c>
@@ -15004,7 +15014,7 @@
         <v>6.2857000000000003</v>
       </c>
     </row>
-    <row r="502" spans="1:19">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>50000</v>
       </c>
@@ -15024,7 +15034,7 @@
         <v>6.2957000000000001</v>
       </c>
     </row>
-    <row r="503" spans="1:19">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>50100</v>
       </c>
@@ -15044,7 +15054,7 @@
         <v>6.3056999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:19">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>50200</v>
       </c>
@@ -15064,7 +15074,7 @@
         <v>6.3156999999999996</v>
       </c>
     </row>
-    <row r="505" spans="1:19">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>50300</v>
       </c>
@@ -15084,7 +15094,7 @@
         <v>6.3257000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:19">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>50400</v>
       </c>
@@ -15104,7 +15114,7 @@
         <v>6.3357000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:19">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>50500</v>
       </c>
@@ -15124,7 +15134,7 @@
         <v>6.3456999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:19">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>50600</v>
       </c>
@@ -15144,7 +15154,7 @@
         <v>6.3556999999999997</v>
       </c>
     </row>
-    <row r="509" spans="1:19">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>50700</v>
       </c>
@@ -15164,7 +15174,7 @@
         <v>6.3657000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:19">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>50800</v>
       </c>
@@ -15184,7 +15194,7 @@
         <v>6.3757000000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:19">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>50900</v>
       </c>
@@ -15204,7 +15214,7 @@
         <v>6.3856999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:19">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>51000</v>
       </c>
@@ -15224,7 +15234,7 @@
         <v>6.3956999999999997</v>
       </c>
     </row>
-    <row r="513" spans="1:19">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>51100</v>
       </c>
@@ -15244,7 +15254,7 @@
         <v>6.4057000000000004</v>
       </c>
     </row>
-    <row r="514" spans="1:19">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>51200</v>
       </c>
@@ -15264,7 +15274,7 @@
         <v>6.4157000000000002</v>
       </c>
     </row>
-    <row r="515" spans="1:19">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>51300</v>
       </c>
@@ -15284,7 +15294,7 @@
         <v>6.4257</v>
       </c>
     </row>
-    <row r="516" spans="1:19">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>51400</v>
       </c>
@@ -15304,7 +15314,7 @@
         <v>6.4356999999999998</v>
       </c>
     </row>
-    <row r="517" spans="1:19">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>51500</v>
       </c>
@@ -15324,7 +15334,7 @@
         <v>6.4457000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:19">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>51600</v>
       </c>
@@ -15344,7 +15354,7 @@
         <v>6.4557000000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:19">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>51700</v>
       </c>
@@ -15364,7 +15374,7 @@
         <v>6.4657</v>
       </c>
     </row>
-    <row r="520" spans="1:19">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>51800</v>
       </c>
@@ -15384,7 +15394,7 @@
         <v>6.4756999999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:19">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>51900</v>
       </c>
@@ -15404,7 +15414,7 @@
         <v>6.4856999999999996</v>
       </c>
     </row>
-    <row r="522" spans="1:19">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>52000</v>
       </c>
@@ -15424,7 +15434,7 @@
         <v>6.4957000000000003</v>
       </c>
     </row>
-    <row r="523" spans="1:19">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>52100</v>
       </c>
@@ -15444,7 +15454,7 @@
         <v>6.5057</v>
       </c>
     </row>
-    <row r="524" spans="1:19">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>52200</v>
       </c>
@@ -15464,7 +15474,7 @@
         <v>6.5156999999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:19">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>52300</v>
       </c>
@@ -15484,7 +15494,7 @@
         <v>6.5256999999999996</v>
       </c>
     </row>
-    <row r="526" spans="1:19">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>52400</v>
       </c>
@@ -15504,7 +15514,7 @@
         <v>6.5357000000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:19">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>52500</v>
       </c>
@@ -15524,7 +15534,7 @@
         <v>6.5457000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:19">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>52600</v>
       </c>
@@ -15544,7 +15554,7 @@
         <v>6.5556999999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:19">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>52700</v>
       </c>
@@ -15564,7 +15574,7 @@
         <v>6.5656999999999996</v>
       </c>
     </row>
-    <row r="530" spans="1:19">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>52800</v>
       </c>
@@ -15584,7 +15594,7 @@
         <v>6.5757000000000003</v>
       </c>
     </row>
-    <row r="531" spans="1:19">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>52900</v>
       </c>
@@ -15604,7 +15614,7 @@
         <v>6.5857000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:19">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>53000</v>
       </c>
@@ -15624,7 +15634,7 @@
         <v>6.5956999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:19">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>53100</v>
       </c>
@@ -15644,7 +15654,7 @@
         <v>6.6056999999999997</v>
       </c>
     </row>
-    <row r="534" spans="1:19">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>53200</v>
       </c>
@@ -15664,7 +15674,7 @@
         <v>6.6157000000000004</v>
       </c>
     </row>
-    <row r="535" spans="1:19">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>53300</v>
       </c>
@@ -15684,7 +15694,7 @@
         <v>6.6257000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:19">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>53400</v>
       </c>
@@ -15704,7 +15714,7 @@
         <v>6.6356999999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:19">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>53500</v>
       </c>
@@ -15724,7 +15734,7 @@
         <v>6.6456999999999997</v>
       </c>
     </row>
-    <row r="538" spans="1:19">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>53600</v>
       </c>
@@ -15744,7 +15754,7 @@
         <v>6.6557000000000004</v>
       </c>
     </row>
-    <row r="539" spans="1:19">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>53700</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>6.6657000000000002</v>
       </c>
     </row>
-    <row r="540" spans="1:19">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>53800</v>
       </c>
@@ -15784,7 +15794,7 @@
         <v>6.6757</v>
       </c>
     </row>
-    <row r="541" spans="1:19">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>53900</v>
       </c>
@@ -15804,7 +15814,7 @@
         <v>6.6856999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:19">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>54000</v>
       </c>
@@ -15824,7 +15834,7 @@
         <v>6.6957000000000004</v>
       </c>
     </row>
-    <row r="543" spans="1:19">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>54100</v>
       </c>
@@ -15844,7 +15854,7 @@
         <v>6.7057000000000002</v>
       </c>
     </row>
-    <row r="544" spans="1:19">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>54200</v>
       </c>
@@ -15864,7 +15874,7 @@
         <v>6.7157</v>
       </c>
     </row>
-    <row r="545" spans="1:19">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>54300</v>
       </c>
@@ -15884,7 +15894,7 @@
         <v>6.7256999999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:19">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>54400</v>
       </c>
@@ -15904,7 +15914,7 @@
         <v>6.7356999999999996</v>
       </c>
     </row>
-    <row r="547" spans="1:19">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>54500</v>
       </c>
@@ -15924,7 +15934,7 @@
         <v>6.7457000000000003</v>
       </c>
     </row>
-    <row r="548" spans="1:19">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>54600</v>
       </c>
@@ -15944,7 +15954,7 @@
         <v>6.7557</v>
       </c>
     </row>
-    <row r="549" spans="1:19">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>54700</v>
       </c>
@@ -15964,7 +15974,7 @@
         <v>6.7656999999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:19">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>54800</v>
       </c>
@@ -15984,7 +15994,7 @@
         <v>6.7756999999999996</v>
       </c>
     </row>
-    <row r="551" spans="1:19">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>54900</v>
       </c>
@@ -16004,7 +16014,7 @@
         <v>6.7857000000000003</v>
       </c>
     </row>
-    <row r="552" spans="1:19">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>55000</v>
       </c>
@@ -16024,7 +16034,7 @@
         <v>6.7957000000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:19">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>55100</v>
       </c>
@@ -16044,7 +16054,7 @@
         <v>6.8056999999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:19">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>55200</v>
       </c>
@@ -16064,7 +16074,7 @@
         <v>6.8156999999999996</v>
       </c>
     </row>
-    <row r="555" spans="1:19">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>55300</v>
       </c>
@@ -16084,7 +16094,7 @@
         <v>6.8257000000000003</v>
       </c>
     </row>
-    <row r="556" spans="1:19">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>55400</v>
       </c>
@@ -16104,7 +16114,7 @@
         <v>6.8357000000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:19">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>55500</v>
       </c>
@@ -16124,7 +16134,7 @@
         <v>6.8456999999999999</v>
       </c>
     </row>
-    <row r="558" spans="1:19">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>55600</v>
       </c>
@@ -16144,7 +16154,7 @@
         <v>6.8556999999999997</v>
       </c>
     </row>
-    <row r="559" spans="1:19">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>55700</v>
       </c>
@@ -16164,7 +16174,7 @@
         <v>6.8657000000000004</v>
       </c>
     </row>
-    <row r="560" spans="1:19">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>55800</v>
       </c>
@@ -16184,7 +16194,7 @@
         <v>6.8757000000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:19">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>55900</v>
       </c>
@@ -16204,7 +16214,7 @@
         <v>6.8856999999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:19">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>56000</v>
       </c>
@@ -16224,7 +16234,7 @@
         <v>6.8956999999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:19">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>56100</v>
       </c>
@@ -16244,7 +16254,7 @@
         <v>6.9057000000000004</v>
       </c>
     </row>
-    <row r="564" spans="1:19">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>56200</v>
       </c>
@@ -16264,7 +16274,7 @@
         <v>6.9157000000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:19">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>56300</v>
       </c>
@@ -16284,7 +16294,7 @@
         <v>6.9257</v>
       </c>
     </row>
-    <row r="566" spans="1:19">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>56400</v>
       </c>
@@ -16304,7 +16314,7 @@
         <v>6.9356999999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:19">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>56500</v>
       </c>
@@ -16324,7 +16334,7 @@
         <v>6.9457000000000004</v>
       </c>
     </row>
-    <row r="568" spans="1:19">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>56600</v>
       </c>
@@ -16344,7 +16354,7 @@
         <v>6.9557000000000002</v>
       </c>
     </row>
-    <row r="569" spans="1:19">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>56700</v>
       </c>
@@ -16364,7 +16374,7 @@
         <v>6.9657</v>
       </c>
     </row>
-    <row r="570" spans="1:19">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>56800</v>
       </c>
@@ -16384,7 +16394,7 @@
         <v>6.9756999999999998</v>
       </c>
     </row>
-    <row r="571" spans="1:19">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>56900</v>
       </c>
@@ -16404,7 +16414,7 @@
         <v>6.9856999999999996</v>
       </c>
     </row>
-    <row r="572" spans="1:19">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>57000</v>
       </c>
@@ -16427,10 +16437,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>